--- a/preprocesamiento/nombres_filtro.xlsx
+++ b/preprocesamiento/nombres_filtro.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">CODUSU</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve">PP04B_COD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGION</t>
   </si>
   <si>
     <t xml:space="preserve">II1</t>
@@ -601,6 +604,11 @@
         <v>30</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -642,7 +650,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -662,12 +670,12 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
